--- a/results/initial_descriptives/NRI/pcnt_landu_by_lcc.xlsx
+++ b/results/initial_descriptives/NRI/pcnt_landu_by_lcc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepos\land-use\results\initial_descriptives\NRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3EB4D1-5C5C-45AE-A858-9463533B3B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5DF39F-E6C8-4E51-8AE2-3D430E9FB031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1982" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="2007" sheetId="6" r:id="rId6"/>
     <sheet name="2012" sheetId="7" r:id="rId7"/>
     <sheet name="mean" sheetId="8" r:id="rId8"/>
+    <sheet name="readme" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -87,6 +88,12 @@
   </si>
   <si>
     <t>Waterland</t>
+  </si>
+  <si>
+    <t>Tables add up to 100%</t>
+  </si>
+  <si>
+    <t>Interpretation: X% of ALL LAND is in land use A AND in LCC B</t>
   </si>
 </sst>
 </file>
@@ -3001,8 +3008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3330,4 +3337,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7CA3B3-BA7E-4B9C-89C6-F8C2A8EE4855}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/results/initial_descriptives/NRI/pcnt_landu_by_lcc.xlsx
+++ b/results/initial_descriptives/NRI/pcnt_landu_by_lcc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\GitRepos\land-use\results\initial_descriptives\NRI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\land-use\results\initial_descriptives\NRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3EB4D1-5C5C-45AE-A858-9463533B3B69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D75B28-A768-47E7-9826-4388F9F50B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,23 @@
     <sheet name="2012" sheetId="7" r:id="rId7"/>
     <sheet name="mean" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="22">
   <si>
     <t>year</t>
   </si>
@@ -88,6 +99,12 @@
   <si>
     <t>Waterland</t>
   </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -126,10 +143,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2999,15 +3017,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3038,8 +3060,11 @@
       <c r="J1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3070,8 +3095,12 @@
       <c r="J2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="3">
+        <f>SUM(B2:J2)</f>
+        <v>1.4738254336906331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3102,8 +3131,12 @@
       <c r="J3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K11" si="0">SUM(B3:J3)</f>
+        <v>14.381721779704094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3134,8 +3167,12 @@
       <c r="J4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>14.533260975565231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3166,8 +3203,12 @@
       <c r="J5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>10.17134533183915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3198,8 +3239,12 @@
       <c r="J6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7420843231957404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3230,8 +3275,12 @@
       <c r="J7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>14.301564981894833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3262,8 +3311,12 @@
       <c r="J8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>13.977466584981553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3294,8 +3347,12 @@
       <c r="J9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.1992048842604552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3325,6 +3382,55 @@
       </c>
       <c r="J10" s="2">
         <v>2.6304602282387868</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="0"/>
+        <v>28.219526205744064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM(B2:B10)</f>
+        <v>21.088900515809652</v>
+      </c>
+      <c r="C11" s="3">
+        <f t="shared" ref="C11:J11" si="1">SUM(C2:C10)</f>
+        <v>21.228547314448019</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>19.689129937972339</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.3440186759190915</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7187250001089915</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2423205232884615</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>20.75073950631278</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>3.307158798777631</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6304602282387868</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>100.00000050087576</v>
       </c>
     </row>
   </sheetData>
